--- a/Reports/SKI_C_SOVT.xlsx
+++ b/Reports/SKI_C_SOVT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vboxuser\Documents\GitHub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DB2891-F1E7-4D2B-BC30-2CBDF5933F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E55AB1F-345A-4969-AF60-9BB995C6A550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Отчет ЦТ'!$A$1:$R$58</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1" iterateDelta="252"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -158,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,29 +261,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
@@ -294,6 +271,22 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -313,74 +306,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,32 +359,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -472,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -510,150 +415,87 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,9 +515,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -713,9 +555,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,9 +590,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,9 +642,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -964,8 +840,8 @@
   </sheetPr>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,28 +861,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16" t="str">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
@@ -1026,91 +902,91 @@
       <c r="P2" s="14"/>
     </row>
     <row r="3" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="I3" s="57" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="I3" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="I4" s="57" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="I4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="60" t="str">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="35" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="I5" s="57" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="I5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="60" t="s">
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="I6" s="57" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="I6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="60" t="s">
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -1119,28 +995,28 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -1149,16 +1025,16 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="2:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -1167,16 +1043,16 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
@@ -1185,18 +1061,18 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="60" t="s">
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -1205,16 +1081,16 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
@@ -1223,18 +1099,18 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="61" t="s">
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
     </row>
     <row r="14" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
@@ -1243,16 +1119,16 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
     </row>
     <row r="15" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
@@ -1261,16 +1137,16 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
@@ -1279,378 +1155,378 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
     </row>
     <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
     </row>
     <row r="28" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
     </row>
     <row r="29" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:16" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
+    <row r="34" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="33" t="s">
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="37" t="s">
+      <c r="I34" s="41"/>
+      <c r="J34" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="37" t="s">
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="38"/>
-      <c r="O34" s="39"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
       <c r="P34" s="6"/>
     </row>
     <row r="35" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
       <c r="L35" s="42"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="41"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
       <c r="O35" s="42"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="43" t="s">
+    <row r="36" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="43" t="s">
+    <row r="38" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1670,12 +1546,12 @@
     </row>
     <row r="41" spans="1:16" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="8"/>
@@ -1686,183 +1562,182 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="33" t="s">
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="37" t="s">
+      <c r="I42" s="41"/>
+      <c r="J42" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="38"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="33" t="s">
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="N42" s="49"/>
-      <c r="O42" s="34"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="41"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
       <c r="L43" s="42"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="36"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
     </row>
     <row r="54" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
     </row>
     <row r="55" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
     </row>
     <row r="56" spans="1:16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
@@ -1896,22 +1771,22 @@
       <c r="K57" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
       <c r="O57" s="11"/>
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -1925,58 +1800,28 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="84">
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="K54:P54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:P55"/>
-    <mergeCell ref="B46:G47"/>
-    <mergeCell ref="H46:I47"/>
-    <mergeCell ref="J46:L47"/>
-    <mergeCell ref="M46:O47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="K53:P53"/>
-    <mergeCell ref="B42:G43"/>
-    <mergeCell ref="H42:I43"/>
-    <mergeCell ref="J42:L43"/>
-    <mergeCell ref="M42:O43"/>
-    <mergeCell ref="B44:G45"/>
-    <mergeCell ref="H44:I45"/>
-    <mergeCell ref="J44:L45"/>
-    <mergeCell ref="M44:O45"/>
-    <mergeCell ref="B38:G39"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="J38:L39"/>
-    <mergeCell ref="M38:O39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="B34:G35"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="J34:L35"/>
-    <mergeCell ref="M34:O35"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="J36:L37"/>
-    <mergeCell ref="M36:O37"/>
-    <mergeCell ref="B24:G25"/>
-    <mergeCell ref="H24:P25"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="H26:P27"/>
-    <mergeCell ref="B28:G29"/>
-    <mergeCell ref="H28:P29"/>
-    <mergeCell ref="B22:G23"/>
-    <mergeCell ref="H22:P23"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A17:Q19"/>
-    <mergeCell ref="B20:G21"/>
-    <mergeCell ref="H20:P21"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="I13:L13"/>
@@ -1987,30 +1832,60 @@
     <mergeCell ref="M10:P10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="B22:G23"/>
+    <mergeCell ref="H22:P23"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A17:Q19"/>
+    <mergeCell ref="B20:G21"/>
+    <mergeCell ref="H20:P21"/>
+    <mergeCell ref="B24:G25"/>
+    <mergeCell ref="H24:P25"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="H26:P27"/>
+    <mergeCell ref="B28:G29"/>
+    <mergeCell ref="H28:P29"/>
+    <mergeCell ref="B34:G35"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="J34:L35"/>
+    <mergeCell ref="M34:O35"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="J36:L37"/>
+    <mergeCell ref="M36:O37"/>
+    <mergeCell ref="B38:G39"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="J38:L39"/>
+    <mergeCell ref="M38:O39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="B42:G43"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="J42:L43"/>
+    <mergeCell ref="M42:O43"/>
+    <mergeCell ref="B44:G45"/>
+    <mergeCell ref="H44:I45"/>
+    <mergeCell ref="J44:L45"/>
+    <mergeCell ref="M44:O45"/>
+    <mergeCell ref="B46:G47"/>
+    <mergeCell ref="H46:I47"/>
+    <mergeCell ref="J46:L47"/>
+    <mergeCell ref="M46:O47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="K53:P53"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="K54:P54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="K55:P55"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:G41" xr:uid="{2DD1AC28-4A8A-4275-8754-8AB47A55B066}">
       <formula1>"соответствует, не соответствует"</formula1>
     </dataValidation>

--- a/Reports/SKI_C_SOVT.xlsx
+++ b/Reports/SKI_C_SOVT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vboxuser\Documents\GitHub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E55AB1F-345A-4969-AF60-9BB995C6A550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E175A05-9465-4118-B910-4F559E2AEB21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,85 +416,85 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,7 +841,7 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+      <selection activeCell="B53" sqref="B53:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,28 +861,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37" t="str">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
@@ -902,91 +902,91 @@
       <c r="P2" s="14"/>
     </row>
     <row r="3" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="I3" s="34" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="I4" s="34" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="I4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35" t="str">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="I5" s="34" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35" t="s">
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="I6" s="34" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="I6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35" t="s">
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -995,28 +995,28 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
     </row>
     <row r="8" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -1025,16 +1025,16 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" spans="2:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -1043,16 +1043,16 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
@@ -1061,18 +1061,18 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="35" t="s">
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -1081,16 +1081,16 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
@@ -1099,18 +1099,18 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30" t="s">
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
@@ -1119,16 +1119,16 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="2:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
@@ -1137,16 +1137,16 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
@@ -1166,149 +1166,149 @@
       <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="38" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="38" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
@@ -1320,12 +1320,12 @@
       <c r="P24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
@@ -1345,17 +1345,17 @@
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
     </row>
     <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="28"/>
@@ -1364,15 +1364,15 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="28" t="s">
@@ -1412,45 +1412,45 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41" t="s">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="42" t="s">
+      <c r="I34" s="31"/>
+      <c r="J34" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42" t="s">
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
       <c r="P34" s="6"/>
     </row>
     <row r="35" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1546,12 +1546,12 @@
     </row>
     <row r="41" spans="1:16" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="8"/>
@@ -1564,46 +1564,46 @@
     </row>
     <row r="42" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="41" t="s">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="42" t="s">
+      <c r="I42" s="31"/>
+      <c r="J42" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="41" t="s">
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1685,59 +1685,59 @@
     <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
     </row>
     <row r="54" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
     </row>
     <row r="55" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
     </row>
     <row r="56" spans="1:16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
@@ -1771,22 +1771,22 @@
       <c r="K57" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
       <c r="O57" s="11"/>
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -1800,18 +1800,68 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="84">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="K54:P54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="K55:P55"/>
+    <mergeCell ref="B46:G47"/>
+    <mergeCell ref="H46:I47"/>
+    <mergeCell ref="J46:L47"/>
+    <mergeCell ref="M46:O47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="K53:P53"/>
+    <mergeCell ref="B42:G43"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="J42:L43"/>
+    <mergeCell ref="M42:O43"/>
+    <mergeCell ref="B44:G45"/>
+    <mergeCell ref="H44:I45"/>
+    <mergeCell ref="J44:L45"/>
+    <mergeCell ref="M44:O45"/>
+    <mergeCell ref="B38:G39"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="J38:L39"/>
+    <mergeCell ref="M38:O39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="B34:G35"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="J34:L35"/>
+    <mergeCell ref="M34:O35"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="J36:L37"/>
+    <mergeCell ref="M36:O37"/>
+    <mergeCell ref="B24:G25"/>
+    <mergeCell ref="H24:P25"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="H26:P27"/>
+    <mergeCell ref="B28:G29"/>
+    <mergeCell ref="H28:P29"/>
+    <mergeCell ref="B22:G23"/>
+    <mergeCell ref="H22:P23"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A17:Q19"/>
+    <mergeCell ref="B20:G21"/>
+    <mergeCell ref="H20:P21"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:P11"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="B5:C5"/>
@@ -1822,68 +1872,18 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="B22:G23"/>
-    <mergeCell ref="H22:P23"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A17:Q19"/>
-    <mergeCell ref="B20:G21"/>
-    <mergeCell ref="H20:P21"/>
-    <mergeCell ref="B24:G25"/>
-    <mergeCell ref="H24:P25"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="H26:P27"/>
-    <mergeCell ref="B28:G29"/>
-    <mergeCell ref="H28:P29"/>
-    <mergeCell ref="B34:G35"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="J34:L35"/>
-    <mergeCell ref="M34:O35"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="J36:L37"/>
-    <mergeCell ref="M36:O37"/>
-    <mergeCell ref="B38:G39"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="J38:L39"/>
-    <mergeCell ref="M38:O39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="B42:G43"/>
-    <mergeCell ref="H42:I43"/>
-    <mergeCell ref="J42:L43"/>
-    <mergeCell ref="M42:O43"/>
-    <mergeCell ref="B44:G45"/>
-    <mergeCell ref="H44:I45"/>
-    <mergeCell ref="J44:L45"/>
-    <mergeCell ref="M44:O45"/>
-    <mergeCell ref="B46:G47"/>
-    <mergeCell ref="H46:I47"/>
-    <mergeCell ref="J46:L47"/>
-    <mergeCell ref="M46:O47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="K53:P53"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="K54:P54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:P55"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:P3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:G41" xr:uid="{2DD1AC28-4A8A-4275-8754-8AB47A55B066}">

--- a/Reports/SKI_C_SOVT.xlsx
+++ b/Reports/SKI_C_SOVT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vboxuser\Documents\GitHub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E175A05-9465-4118-B910-4F559E2AEB21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF03F1D9-3A41-427E-AA91-4B0F2D58778A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,12 +461,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,6 +489,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,8 +840,8 @@
   </sheetPr>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:C53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,7 +1411,7 @@
       <c r="P29" s="27"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="30" t="s">
         <v>26</v>
       </c>
@@ -1420,37 +1420,37 @@
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32" t="s">
+      <c r="I34" s="41"/>
+      <c r="J34" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32" t="s">
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1546,12 +1546,12 @@
     </row>
     <row r="41" spans="1:16" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="8"/>
@@ -1562,7 +1562,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="30" t="s">
         <v>32</v>
@@ -1572,23 +1572,23 @@
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
-      <c r="H42" s="31" t="s">
+      <c r="H42" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32" t="s">
+      <c r="I42" s="41"/>
+      <c r="J42" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="31" t="s">
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -1596,14 +1596,14 @@
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1685,59 +1685,59 @@
     <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
     </row>
     <row r="54" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
     </row>
     <row r="55" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
     </row>
     <row r="56" spans="1:16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
@@ -1771,22 +1771,22 @@
       <c r="K57" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
       <c r="O57" s="11"/>
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -1891,6 +1891,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="1.4960629921259843" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reports/SKI_C_SOVT.xlsx
+++ b/Reports/SKI_C_SOVT.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vboxuser\Documents\GitHub\MpiSki\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891B7DB0-FEC7-4326-B5DE-7B8C056DDEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0780B2AE-32E3-4A63-877D-7D6B1EBAC9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="3630" windowWidth="10290" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Отчет ЦТ" sheetId="18" r:id="rId1"/>
+    <sheet name="ЦТ" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Отчет ЦТ'!$A$1:$R$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ЦТ!$A$1:$R$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -660,60 +660,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -721,15 +667,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,8 +676,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -748,21 +758,53 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,119 +812,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A17" sqref="A17:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,665 +1247,665 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26" t="str">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-    </row>
-    <row r="2" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-    </row>
-    <row r="3" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+    </row>
+    <row r="2" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="I3" s="30" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="I3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-    </row>
-    <row r="4" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+    </row>
+    <row r="4" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="I4" s="30" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="I4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31" t="str">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-    </row>
-    <row r="5" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="I5" s="30" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="I5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-    </row>
-    <row r="6" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="I6" s="30" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="I6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="7" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="I7" s="30" t="s">
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-    </row>
-    <row r="8" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="30" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-    </row>
-    <row r="9" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="I9" s="30" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-    </row>
-    <row r="10" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="I10" s="32" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-    </row>
-    <row r="11" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="I11" s="32" t="s">
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="I11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="31" t="s">
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-    </row>
-    <row r="12" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="I12" s="32" t="s">
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+    </row>
+    <row r="12" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="I12" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-    </row>
-    <row r="13" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="I13" s="32" t="s">
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+    </row>
+    <row r="13" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="I13" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="36" t="s">
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-    </row>
-    <row r="14" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="I14" s="32" t="s">
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="I14" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-    </row>
-    <row r="15" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="I15" s="37" t="s">
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="I15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-    </row>
-    <row r="16" spans="2:17" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+    </row>
+    <row r="16" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
     </row>
     <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
     </row>
     <row r="29" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="73" t="s">
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="73" t="s">
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="42"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="64" t="s">
+      <c r="L34" s="17"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="O34" s="42"/>
-      <c r="P34" s="44"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="18"/>
     </row>
     <row r="35" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="83"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="65"/>
     </row>
     <row r="36" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="44"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="18"/>
     </row>
     <row r="37" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="75"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="49"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="21"/>
     </row>
     <row r="38" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="44"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="18"/>
     </row>
     <row r="39" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="49"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="21"/>
     </row>
     <row r="40" spans="1:16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -1927,12 +1927,12 @@
     </row>
     <row r="41" spans="1:16" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="4"/>
@@ -1945,182 +1945,182 @@
     </row>
     <row r="42" spans="1:16" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="73" t="s">
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="44" t="s">
+      <c r="I42" s="17"/>
+      <c r="J42" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="61" t="s">
+      <c r="K42" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="43"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="73" t="s">
+      <c r="L42" s="29"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="42"/>
-      <c r="P42" s="44"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="18"/>
     </row>
     <row r="43" spans="1:16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="21"/>
     </row>
     <row r="44" spans="1:16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="60"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="77"/>
     </row>
     <row r="45" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="49"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="21"/>
     </row>
     <row r="46" spans="1:16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="44"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="18"/>
     </row>
     <row r="47" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="49"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="21"/>
     </row>
     <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="81"/>
+      <c r="P53" s="81"/>
     </row>
     <row r="54" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="81"/>
+      <c r="O54" s="81"/>
+      <c r="P54" s="81"/>
     </row>
     <row r="55" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="81"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="81"/>
+      <c r="O55" s="81"/>
+      <c r="P55" s="81"/>
     </row>
     <row r="56" spans="1:16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
@@ -2154,22 +2154,22 @@
       <c r="K57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="82"/>
       <c r="O57" s="7"/>
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -2183,23 +2183,63 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="84">
-    <mergeCell ref="K34:M35"/>
-    <mergeCell ref="K36:M37"/>
-    <mergeCell ref="K38:M39"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="K42:M43"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="K54:P54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="K55:P55"/>
+    <mergeCell ref="B46:G47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="K53:P53"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="K46:M47"/>
+    <mergeCell ref="N46:P47"/>
+    <mergeCell ref="B42:G43"/>
+    <mergeCell ref="B44:G45"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="K44:M45"/>
+    <mergeCell ref="N44:P45"/>
+    <mergeCell ref="B38:G39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="N38:P39"/>
+    <mergeCell ref="B34:G35"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="N34:P35"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="B24:G25"/>
+    <mergeCell ref="H24:P25"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="H26:P27"/>
+    <mergeCell ref="B28:G29"/>
+    <mergeCell ref="H28:P29"/>
+    <mergeCell ref="B22:G23"/>
+    <mergeCell ref="H22:P23"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A17:Q19"/>
+    <mergeCell ref="B20:G21"/>
+    <mergeCell ref="H20:P21"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:P11"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="B5:C5"/>
@@ -2210,63 +2250,23 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="B22:G23"/>
-    <mergeCell ref="H22:P23"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A17:Q19"/>
-    <mergeCell ref="B20:G21"/>
-    <mergeCell ref="H20:P21"/>
-    <mergeCell ref="B24:G25"/>
-    <mergeCell ref="H24:P25"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="H26:P27"/>
-    <mergeCell ref="B28:G29"/>
-    <mergeCell ref="H28:P29"/>
-    <mergeCell ref="B34:G35"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="N34:P35"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="B38:G39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="N38:P39"/>
-    <mergeCell ref="B42:G43"/>
-    <mergeCell ref="B44:G45"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="K44:M45"/>
-    <mergeCell ref="N44:P45"/>
-    <mergeCell ref="B46:G47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="K53:P53"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="K46:M47"/>
-    <mergeCell ref="N46:P47"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="K54:P54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:P55"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="K34:M35"/>
+    <mergeCell ref="K36:M37"/>
+    <mergeCell ref="K38:M39"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="K42:M43"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:G41" xr:uid="{2DD1AC28-4A8A-4275-8754-8AB47A55B066}">

--- a/Reports/SKI_C_SOVT.xlsx
+++ b/Reports/SKI_C_SOVT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vboxuser\Documents\GitHub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0780B2AE-32E3-4A63-877D-7D6B1EBAC9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F663223-D976-4ABF-A791-61FB02560938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28680" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ЦТ" sheetId="18" r:id="rId1"/>
@@ -677,57 +677,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -806,6 +755,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,6 +794,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,6 +839,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -865,6 +862,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1227,8 +1227,8 @@
   </sheetPr>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:Q19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,28 +1248,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="str">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
@@ -1289,91 +1289,91 @@
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="I3" s="35" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="I4" s="35" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="I4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36" t="str">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="I5" s="35" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36" t="s">
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="I6" s="35" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="I6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="36" t="s">
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
@@ -1382,28 +1382,28 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
     </row>
     <row r="8" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
@@ -1412,16 +1412,16 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
@@ -1430,16 +1430,16 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
@@ -1448,18 +1448,18 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="36" t="s">
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
     </row>
     <row r="12" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
@@ -1468,16 +1468,16 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
@@ -1486,18 +1486,18 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38" t="s">
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
@@ -1506,16 +1506,16 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
@@ -1524,16 +1524,16 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
@@ -1553,359 +1553,359 @@
       <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
     </row>
     <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
     </row>
     <row r="29" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="16" t="s">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="16" t="s">
+      <c r="I34" s="43"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="62" t="s">
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O34" s="17"/>
-      <c r="P34" s="18"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
     </row>
     <row r="35" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="65"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="54"/>
     </row>
     <row r="36" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="18"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="44"/>
     </row>
     <row r="37" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="21"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="47"/>
     </row>
     <row r="38" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="18"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="44"/>
     </row>
     <row r="39" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="21"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="47"/>
     </row>
     <row r="40" spans="1:16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -1927,12 +1927,12 @@
     </row>
     <row r="41" spans="1:16" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="4"/>
@@ -1945,125 +1945,125 @@
     </row>
     <row r="42" spans="1:16" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="16" t="s">
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18" t="s">
+      <c r="I42" s="43"/>
+      <c r="J42" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="28" t="s">
+      <c r="K42" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="29"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="16" t="s">
+      <c r="L42" s="71"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="17"/>
-      <c r="P42" s="18"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="44"/>
     </row>
     <row r="43" spans="1:16" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="21"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="47"/>
     </row>
     <row r="44" spans="1:16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="77"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="76"/>
     </row>
     <row r="45" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="21"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="47"/>
     </row>
     <row r="46" spans="1:16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="18"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="44"/>
     </row>
     <row r="47" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="21"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="47"/>
     </row>
     <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2204,17 +2204,22 @@
     <mergeCell ref="H44:J45"/>
     <mergeCell ref="K44:M45"/>
     <mergeCell ref="N44:P45"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="K42:M43"/>
     <mergeCell ref="B38:G39"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="H38:J39"/>
     <mergeCell ref="N38:P39"/>
+    <mergeCell ref="K38:M39"/>
     <mergeCell ref="B34:G35"/>
     <mergeCell ref="B36:G37"/>
     <mergeCell ref="H34:J35"/>
     <mergeCell ref="H36:J37"/>
     <mergeCell ref="N34:P35"/>
     <mergeCell ref="N36:P37"/>
+    <mergeCell ref="K34:M35"/>
+    <mergeCell ref="K36:M37"/>
     <mergeCell ref="B24:G25"/>
     <mergeCell ref="H24:P25"/>
     <mergeCell ref="B26:G27"/>
@@ -2262,11 +2267,6 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="I3:P3"/>
-    <mergeCell ref="K34:M35"/>
-    <mergeCell ref="K36:M37"/>
-    <mergeCell ref="K38:M39"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="K42:M43"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:G41" xr:uid="{2DD1AC28-4A8A-4275-8754-8AB47A55B066}">
